--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -23,6 +23,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Stock10</t>
+  </si>
+  <si>
+    <t>Stock11</t>
+  </si>
+  <si>
+    <t>Stock12</t>
+  </si>
+  <si>
+    <t>Stock13</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
@@ -34,12 +63,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +372,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>100</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1">
+        <v>60</v>
+      </c>
+      <c r="I9" s="1">
+        <v>90</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <f>F9*($B$2/$B$7)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>G9*($B$2/$B$7)</f>
+        <v>4.5</v>
+      </c>
+      <c r="M9" s="1">
+        <f>H9*($B$2/$B$7)</f>
+        <v>9</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" ref="M9:N12" si="0">I9*($B$2/$B$7)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1">
+        <v>60</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <f t="shared" ref="K10:K12" si="1">F10*($B$2/$B$7)</f>
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10:L12" si="2">G10*($B$2/$B$7)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <f>SUM(K9:K12)</f>
+        <v>18</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13:N13" si="3">SUM(L9:L12)</f>
+        <v>13.5</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>